--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,193 +49,193 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>fight</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9696969696969697</v>
@@ -733,16 +733,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7191780821917808</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4429530201342282</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -862,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.437984496124031</v>
+        <v>0.4446601941747573</v>
       </c>
       <c r="C7">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,22 +877,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4133333333333333</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8297872340425532</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3777777777777778</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.328042328042328</v>
+        <v>0.375</v>
       </c>
       <c r="C10">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8166666666666667</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3246753246753247</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>0.8125</v>
@@ -1112,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.253968253968254</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,37 +1162,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1666666666666667</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C13">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,37 +1212,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01090442591404747</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14">
-        <v>117</v>
-      </c>
-      <c r="E14">
-        <v>0.71</v>
-      </c>
-      <c r="F14">
-        <v>0.29</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3084</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K14">
-        <v>0.7676056338028169</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,37 +1262,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008730691739422432</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="E15">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2952</v>
+        <v>193</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1304,21 +1304,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.1581769436997319</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>314</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="L18">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1382,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.71875</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1408,47 +1432,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
+        <v>65</v>
+      </c>
+      <c r="M20">
+        <v>65</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>29</v>
-      </c>
-      <c r="M20">
-        <v>29</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1460,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6579634464751958</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1486,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.660574412532637</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L23">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1512,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1538,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5852941176470589</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1564,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5661016949152542</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L26">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="M26">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1590,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.550561797752809</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1616,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5104602510460251</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L28">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1642,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>117</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.4923076923076923</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1668,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1694,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.4657534246575342</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1720,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1746,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4358974358974359</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1772,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4098360655737705</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1798,56 +1822,56 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.2283464566929134</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>98</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.2076923076923077</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M36">
         <v>28</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>103</v>
@@ -1855,42 +1879,42 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.1798561151079137</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L37">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>342</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.1635220125786163</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1902,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.1572327044025157</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1928,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>134</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.1533742331288344</v>
+        <v>0.1569767441860465</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1954,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.1495327102803738</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>0.97</v>
@@ -1980,99 +2004,99 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.1466346153846154</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L42">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>355</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.1395348837209302</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>185</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.1111111111111111</v>
+        <v>0.122060470324748</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="N44">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O44">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>288</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.1085011185682327</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="L45">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2084,73 +2108,73 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>797</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.1022727272727273</v>
+        <v>0.08794788273615635</v>
       </c>
       <c r="L46">
         <v>27</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N46">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>237</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.08766233766233766</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>281</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.08458864426419467</v>
+        <v>0.0865533230293663</v>
       </c>
       <c r="L48">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="M48">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="N48">
         <v>0.95</v>
@@ -2162,21 +2186,21 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>790</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.08213096559378469</v>
+        <v>0.08546059933407325</v>
       </c>
       <c r="L49">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M49">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2188,189 +2212,111 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.08094117647058824</v>
+        <v>0.07011764705882353</v>
       </c>
       <c r="L50">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M50">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="N50">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O50">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>1953</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.07894736842105263</v>
+        <v>0.04473257698541329</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="M51">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="N51">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="O51">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>595</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.07010309278350516</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="L52">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>451</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.04261954261954262</v>
+        <v>0.02801384954359459</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="M53">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="N53">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="O53">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54">
-        <v>0.04186952288218111</v>
-      </c>
-      <c r="L54">
-        <v>129</v>
-      </c>
-      <c r="M54">
-        <v>155</v>
-      </c>
-      <c r="N54">
-        <v>0.83</v>
-      </c>
-      <c r="O54">
-        <v>0.17</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55">
-        <v>0.02620776760341017</v>
-      </c>
-      <c r="L55">
-        <v>83</v>
-      </c>
-      <c r="M55">
-        <v>117</v>
-      </c>
-      <c r="N55">
-        <v>0.71</v>
-      </c>
-      <c r="O55">
-        <v>0.29</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K56">
-        <v>0.02430555555555556</v>
-      </c>
-      <c r="L56">
-        <v>28</v>
-      </c>
-      <c r="M56">
-        <v>37</v>
-      </c>
-      <c r="N56">
-        <v>0.76</v>
-      </c>
-      <c r="O56">
-        <v>0.24</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1124</v>
+        <v>3088</v>
       </c>
     </row>
   </sheetData>
